--- a/data/trans_dic/P19_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>94,25%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>94,16%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>91,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,21</t>
+          <t>90,26; 97,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,08</t>
+          <t>91,56; 98,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,22</t>
+          <t>90,62; 97,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,74</t>
+          <t>86,36; 95,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,48</t>
+          <t>85,68; 95,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,56</t>
+          <t>84,67; 93,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,21</t>
+          <t>88,93; 96,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,74</t>
+          <t>89,14; 96,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,91</t>
+          <t>87,36; 94,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,23</t>
+          <t>84,52; 94,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,28</t>
+          <t>88,97; 94,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,47</t>
+          <t>91,39; 96,45</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>91,54; 96,35</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>88,0; 94,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>87,47; 94,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>91,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>93,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>93,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,41</t>
+          <t>86,74; 96,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,49</t>
+          <t>91,65; 98,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,95</t>
+          <t>90,38; 98,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 6,4</t>
+          <t>92,61; 99,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 19,83</t>
+          <t>89,48; 98,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,36</t>
+          <t>81,8; 91,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,61</t>
+          <t>85,1; 94,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,03</t>
+          <t>86,08; 94,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,73</t>
+          <t>87,38; 95,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,29</t>
+          <t>86,17; 94,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,74</t>
+          <t>86,07; 93,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,09</t>
+          <t>89,67; 95,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89,95; 95,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>91,82; 96,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>89,58; 95,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>98,4%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>91,63%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>91,29%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>92,36%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 15,0</t>
+          <t>72,83; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 14,88</t>
+          <t>82,08; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,88</t>
+          <t>68,54; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 15,41</t>
+          <t>77,37; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 14,71</t>
+          <t>87,01; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 20,7</t>
+          <t>77,02; 97,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,99</t>
+          <t>72,14; 96,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,19</t>
+          <t>77,36; 97,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,51</t>
+          <t>86,96; 98,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 14,33</t>
+          <t>91,15; 100,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>81,66; 97,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>81,62; 96,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>81,25; 97,38</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>93,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,73</t>
+          <t>91,67; 96,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,23</t>
+          <t>93,56; 98,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,85</t>
+          <t>91,96; 97,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,83</t>
+          <t>90,75; 96,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,1</t>
+          <t>89,27; 95,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,12</t>
+          <t>85,92; 92,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,59</t>
+          <t>89,57; 94,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,05</t>
+          <t>89,11; 94,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,43</t>
+          <t>88,69; 93,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,89</t>
+          <t>87,63; 93,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,37</t>
+          <t>89,59; 93,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,75</t>
+          <t>92,5; 95,74</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>91,32; 95,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>90,67; 94,44</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>89,8; 94,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>347029</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>408084</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>348541</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>349111</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>471250</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>388241</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>474756</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>388756</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>373715</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>505568</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>735269</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>882840</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>737297</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>722825</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>976818</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>330130; 357183</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>391769; 419458</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>331816; 358552</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>328861; 363802</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>442053; 493176</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>366885; 405083</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>452509; 488731</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>371607; 400779</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>355980; 386697</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>468838; 526824</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>710936; 755178</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>856103; 903477</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>716761; 754476</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>693717; 744266</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>936444; 1006641</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>283954</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>345510</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>303772</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>310701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>391610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>303941</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>385119</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>308023</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>309540</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>391905</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>587895</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>730629</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>611795</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>620241</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>783514</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>264295; 295076</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>329407; 355133</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>287723; 312676</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>296905; 318121</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>367251; 403687</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>284299; 319525</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>361961; 401832</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>291300; 320712</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>292736; 319622</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>370394; 408317</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>561402; 607675</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>703701; 750983</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>590740; 628423</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>601971; 634739</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>752760; 803544</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>84826</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>101768</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73728</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>81265</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>112825</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>75326</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>97928</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73935</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>70569</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>100285</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>160152</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>199696</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>147663</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>151834</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>213110</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>57976; 79603</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70253; 85591</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81841; 119398</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63912; 82611</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88026; 101166</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62809; 79541</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58242; 77719</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>86145; 108665</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>145603; 165303</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>184973; 202934</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>131592; 157672</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>135755; 160234</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>187492; 224714</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>715809</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>855362</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>726041</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>741076</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>975685</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>767506</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>957803</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>770714</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>753825</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>997758</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1483315</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1813165</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1496755</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1494901</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1973443</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>692388; 731809</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>831839; 871328</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>702703; 741666</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>714164; 756759</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>933504; 1003745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>741869; 794488</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>927325; 982239</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>745755; 791412</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>730100; 773127</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>960373; 1028072</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1450246; 1516430</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1780031; 1842444</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1461979; 1523317</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1460055; 1520697</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1923296; 2018899</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
